--- a/数据分析/周统计数据.xlsx
+++ b/数据分析/周统计数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>第一周</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>第六周</t>
+  </si>
+  <si>
+    <t>第七周</t>
   </si>
   <si>
     <t>总人数</t>
@@ -101,6 +104,9 @@
   <si>
     <t>1.15-1.21</t>
   </si>
+  <si>
+    <t>1.22-1.28</t>
+  </si>
 </sst>
 </file>
 
@@ -121,29 +127,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -154,32 +153,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -191,29 +172,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -232,8 +206,40 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -262,43 +268,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,13 +304,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,25 +346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,45 +392,6 @@
       <top/>
       <bottom style="medium">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,6 +431,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -478,6 +475,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -489,142 +495,142 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -652,11 +658,11 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="强调文字颜色 4" xfId="4"/>
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="标题" xfId="6"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="标题" xfId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
     <cellStyle name="输入" xfId="9"/>
     <cellStyle name="差" xfId="10"/>
@@ -1141,6 +1147,3659 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="0"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="宋体"/>
+          <a:ea typeface="宋体"/>
+          <a:cs typeface="宋体"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN"/>
+              <a:t>参会人数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet1!$B$2:$G$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9BBB59"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator val=","/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>sheet1!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>第一周</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>第二周</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>第三周</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>第四周</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>第五周</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>第六周</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>第七周</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="0"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="宋体"/>
+          <a:ea typeface="宋体"/>
+          <a:cs typeface="宋体"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN"/>
+              <a:t>参会率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet1!$A$6</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator val=","/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>sheet1!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>第一周</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>第二周</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>第三周</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>第四周</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>第五周</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>第六周</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>第七周</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet1!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.845070422535211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.580645161290323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.442477876106195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.294871794871795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="0"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="宋体"/>
+          <a:ea typeface="宋体"/>
+          <a:cs typeface="宋体"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN"/>
+              <a:t>新增会员</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet1!$A$7</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F79646"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F79646"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F79646"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F79646"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F79646"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F79646"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F79646"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F79646"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator val=","/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>sheet1!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>第一周</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>第二周</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>第三周</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>第四周</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>第五周</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>第六周</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>第七周</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet1!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="0"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="宋体"/>
+          <a:ea typeface="宋体"/>
+          <a:cs typeface="宋体"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN"/>
+              <a:t>复盘率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet1!$A$9</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4BACC6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4BACC6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4BACC6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4BACC6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4BACC6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4BACC6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4BACC6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4BACC6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator val=","/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>sheet1!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>第一周</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>第二周</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>第三周</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>第四周</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>第五周</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>第六周</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>第七周</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet1!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.316666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.296296296296296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.288888888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.260869565217391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="0"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="宋体"/>
+          <a:ea typeface="宋体"/>
+          <a:cs typeface="宋体"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN"/>
+              <a:t>总积分</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$H$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99CC00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CC00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CC00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CC00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CC00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CC00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CC00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CC00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator val=","/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>周一</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>周二</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>周三</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>周四</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>周五</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>周六</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>周日</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="0"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="宋体"/>
+          <a:ea typeface="宋体"/>
+          <a:cs typeface="宋体"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN"/>
+              <a:t>上周积分</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$H$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator val=","/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>周一</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>周二</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>周三</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>周四</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>周五</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>周六</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>周日</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1349,6 +5008,19 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8064A2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -1542,6 +5214,38 @@
               <c:showBubbleSize val="0"/>
               <c:separator val=","/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1575,9 +5279,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet1!$B$2:$G$2</c:f>
+              <c:f>sheet1!$B$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>第一周</c:v>
                 </c:pt>
@@ -1595,15 +5299,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>第六周</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>第七周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet1!$B$5:$G$5</c:f>
+              <c:f>sheet1!$B$5:$H$5</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>93</c:v>
                 </c:pt>
@@ -1621,6 +5328,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,6 +5617,19 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -2100,6 +5823,38 @@
               <c:showBubbleSize val="0"/>
               <c:separator val=","/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2133,9 +5888,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet1!$B$2:$G$2</c:f>
+              <c:f>sheet1!$B$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>第一周</c:v>
                 </c:pt>
@@ -2153,15 +5908,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>第六周</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>第七周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet1!$B$4:$G$4</c:f>
+              <c:f>sheet1!$B$4:$H$4</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -2179,6 +5937,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2464,6 +6225,19 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -2657,6 +6431,38 @@
               <c:showBubbleSize val="0"/>
               <c:separator val=","/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2690,9 +6496,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet1!$B$2:$G$2</c:f>
+              <c:f>sheet1!$B$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>第一周</c:v>
                 </c:pt>
@@ -2710,15 +6516,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>第六周</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>第七周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet1!$B$6:$G$6</c:f>
+              <c:f>sheet1!$B$6:$H$6</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2736,6 +6545,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.294871794871795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3022,6 +6834,19 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F79646"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -3215,6 +7040,38 @@
               <c:showBubbleSize val="0"/>
               <c:separator val=","/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3248,9 +7105,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet1!$B$2:$G$2</c:f>
+              <c:f>sheet1!$B$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>第一周</c:v>
                 </c:pt>
@@ -3268,15 +7125,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>第六周</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>第七周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet1!$B$7:$G$7</c:f>
+              <c:f>sheet1!$B$7:$H$7</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -3294,6 +7154,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3580,6 +7443,19 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4BACC6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -3773,6 +7649,38 @@
               <c:showBubbleSize val="0"/>
               <c:separator val=","/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3806,9 +7714,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet1!$B$2:$G$2</c:f>
+              <c:f>sheet1!$B$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>第一周</c:v>
                 </c:pt>
@@ -3826,15 +7734,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>第六周</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>第七周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet1!$B$9:$G$9</c:f>
+              <c:f>sheet1!$B$9:$H$9</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.526315789473684</c:v>
                 </c:pt>
@@ -3852,6 +7763,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.260869565217391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,6 +8052,19 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CC00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -4429,25 +8356,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>118</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>139</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>154</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4734,6 +8661,19 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -5021,29 +8961,638 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$9:$H$9</c:f>
+              <c:f>Sheet2!$B$10:$H$10</c:f>
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="0"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="宋体"/>
+          <a:ea typeface="宋体"/>
+          <a:cs typeface="宋体"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN"/>
+              <a:t>参会人次</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet1!$A$5</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8064A2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8064A2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8064A2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8064A2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8064A2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8064A2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8064A2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8064A2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" vert="horz"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体"/>
+                      <a:ea typeface="宋体"/>
+                      <a:cs typeface="宋体"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator val=","/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator val=","/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>sheet1!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>第一周</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>第二周</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>第三周</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>第四周</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>第五周</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>第六周</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>第七周</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5213,7 +9762,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10795" y="1822450"/>
-        <a:ext cx="3486785" cy="2733675"/>
+        <a:ext cx="3531235" cy="2733675"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5243,7 +9792,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9525" y="4721225"/>
-        <a:ext cx="4134485" cy="2753360"/>
+        <a:ext cx="4178935" cy="2753360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5273,7 +9822,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10795" y="1812925"/>
-        <a:ext cx="4133215" cy="2752725"/>
+        <a:ext cx="4177665" cy="2752725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5303,7 +9852,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13335" y="10569575"/>
-        <a:ext cx="4144645" cy="2743835"/>
+        <a:ext cx="4189095" cy="2743835"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5333,7 +9882,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9525" y="7663815"/>
-        <a:ext cx="4152265" cy="2743835"/>
+        <a:ext cx="4196715" cy="2743835"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5363,7 +9912,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9525" y="13467715"/>
-        <a:ext cx="4163695" cy="2743835"/>
+        <a:ext cx="4208145" cy="2743835"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5393,7 +9942,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="16383000"/>
-        <a:ext cx="4163695" cy="2743835"/>
+        <a:ext cx="4208145" cy="2743835"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5423,11 +9972,221 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="19286855"/>
-        <a:ext cx="4163695" cy="2743835"/>
+        <a:ext cx="4208145" cy="2743835"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1033" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="4721225"/>
+        <a:ext cx="4178935" cy="2753360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646430</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1034" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="1812925"/>
+        <a:ext cx="4177665" cy="2752725"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1035" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1905" y="10569575"/>
+        <a:ext cx="4189095" cy="2743835"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1036" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="7663815"/>
+        <a:ext cx="4196715" cy="2743835"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1037" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="13467715"/>
+        <a:ext cx="4208145" cy="2743835"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1038" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="16383000"/>
+        <a:ext cx="4208145" cy="2743835"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1039" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="19286855"/>
+        <a:ext cx="4208145" cy="2743835"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5737,18 +10496,20 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -5767,18 +10528,18 @@
   <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="M129" sqref="M129"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="8.38333333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.96666666666667" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="9.25833333333333" customWidth="1"/>
     <col min="9" max="9" width="7.75" customWidth="1"/>
     <col min="10" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="7.625" customWidth="1"/>
@@ -5810,7 +10571,9 @@
       <c r="G1" s="1">
         <v>20180121</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1">
+        <v>20180128</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -5837,7 +10600,9 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5846,7 +10611,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>38</v>
@@ -5866,7 +10631,9 @@
       <c r="G3" s="1">
         <v>144</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>156</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -5875,7 +10642,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>38</v>
@@ -5895,7 +10662,9 @@
       <c r="G4" s="1">
         <v>55</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>46</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -5904,7 +10673,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>93</v>
@@ -5924,7 +10693,9 @@
       <c r="G5" s="1">
         <v>85</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>72</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -5933,10 +10704,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
-        <f t="shared" ref="B6:F6" si="0">B4/B3</f>
+        <f t="shared" ref="B6:H6" si="0">B4/B3</f>
         <v>1</v>
       </c>
       <c r="C6" s="5">
@@ -5959,7 +10730,10 @@
         <f>G4/G3</f>
         <v>0.381944444444444</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="5">
+        <f>H4/H3</f>
+        <v>0.294871794871795</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -5968,13 +10742,13 @@
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>38</v>
       </c>
       <c r="C7" s="1">
-        <f>C3-B3</f>
+        <f t="shared" ref="C7:H7" si="1">C3-B3</f>
         <v>33</v>
       </c>
       <c r="D7" s="1">
@@ -5993,7 +10767,10 @@
         <f>G3-F3</f>
         <v>19</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <f>H3-G3</f>
+        <v>12</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -6002,7 +10779,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>20</v>
@@ -6022,7 +10799,9 @@
       <c r="G8" s="1">
         <v>15</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>12</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -6031,10 +10810,10 @@
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5">
-        <f t="shared" ref="B9:F9" si="1">B8/B4</f>
+        <f t="shared" ref="B9:H9" si="2">B8/B4</f>
         <v>0.526315789473684</v>
       </c>
       <c r="C9" s="5">
@@ -6057,7 +10836,10 @@
         <f>G8/G4</f>
         <v>0.272727272727273</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="5">
+        <f>H8/H4</f>
+        <v>0.260869565217391</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -6075,10 +10857,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6088,63 +10870,63 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <f>SUM(B4:B104)</f>
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:H2" si="0">SUM(C4:C104)</f>
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D2">
         <f>SUM(D4:D104)</f>
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E2">
         <f>SUM(E4:E104)</f>
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F2">
         <f>SUM(F4:F104)</f>
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G2">
         <f>SUM(G4:G104)</f>
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="H2">
         <f>SUM(H4:H104)</f>
-        <v>154</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -6161,7 +10943,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -6187,7 +10969,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>18</v>
@@ -6213,7 +10995,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -6239,7 +11021,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -6265,7 +11047,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -6291,7 +11073,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>28</v>
@@ -6313,6 +11095,32 @@
       </c>
       <c r="H9">
         <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
